--- a/Power Management interface/BOM/BOM.xlsx
+++ b/Power Management interface/BOM/BOM.xlsx
@@ -1,207 +1,291 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E8C0F2-C9A0-45B6-9FCB-BB7B357B04F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D113FF5-2493-5F49-B397-EC9E62581612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{B517B960-1621-DC49-A753-192FB2B9B636}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">    BT1</t>
-  </si>
-  <si>
-    <t>5V_Battery_Cell</t>
-  </si>
-  <si>
-    <t>&gt;  C1-C4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+  <si>
+    <t>Battery_Cell</t>
   </si>
   <si>
     <t>10uF</t>
   </si>
   <si>
-    <t xml:space="preserve">    D1</t>
-  </si>
-  <si>
     <t>RED LED</t>
   </si>
   <si>
-    <t xml:space="preserve">    D2</t>
-  </si>
-  <si>
     <t>GREEN LED</t>
   </si>
   <si>
-    <t>&gt;  J1, J3</t>
+    <t>DW01A-G</t>
   </si>
   <si>
     <t>Conn_01x02_Male</t>
   </si>
   <si>
-    <t xml:space="preserve">    J2</t>
-  </si>
-  <si>
     <t>USB_B_Micro</t>
   </si>
   <si>
-    <t>&gt;  R1, R2</t>
+    <t>FS8205A</t>
   </si>
   <si>
     <t>1K</t>
   </si>
   <si>
-    <t>&gt;  TP1, TP2</t>
+    <t>1k</t>
   </si>
   <si>
     <t>TestPoint</t>
   </si>
   <si>
-    <t xml:space="preserve">    U1</t>
-  </si>
-  <si>
     <t>HT75xx-1-SOT89</t>
   </si>
   <si>
-    <t xml:space="preserve">    U2</t>
-  </si>
-  <si>
     <t>TP4056</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>price per unit</t>
-  </si>
-  <si>
     <t>Total Price</t>
   </si>
   <si>
-    <t>Part number</t>
+    <t>REFERENCE</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>JLCPCB part no:</t>
+  </si>
+  <si>
+    <t>Price per unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package </t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J1, J3</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C1-C3</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>TP1, TP2</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>Extended Part</t>
   </si>
   <si>
     <t>C15850</t>
   </si>
   <si>
-    <t>$0.0135</t>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>C57112</t>
   </si>
   <si>
     <t>C2286</t>
   </si>
   <si>
-    <t>$0.0054</t>
-  </si>
-  <si>
     <t>C2297</t>
   </si>
   <si>
-    <t> $0.0133</t>
-  </si>
-  <si>
     <t>C404969</t>
   </si>
   <si>
+    <t>C908265</t>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
+  </si>
+  <si>
+    <t>C58674</t>
+  </si>
+  <si>
+    <t>$0.0552</t>
+  </si>
+  <si>
+    <t>.0603</t>
+  </si>
+  <si>
     <t>$0.0333</t>
   </si>
   <si>
-    <t xml:space="preserve">    N-ChannelMosfet1</t>
-  </si>
-  <si>
-    <t>2N7002</t>
-  </si>
-  <si>
-    <t>C8545</t>
-  </si>
-  <si>
-    <t>$0.0153</t>
-  </si>
-  <si>
-    <t>C58674</t>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>Plugin</t>
   </si>
   <si>
     <t>$0.0088</t>
   </si>
   <si>
+    <t>500R</t>
+  </si>
+  <si>
+    <t>C61503</t>
+  </si>
+  <si>
+    <t>$0.1461</t>
+  </si>
+  <si>
+    <t>$0.0133</t>
+  </si>
+  <si>
+    <t>.0805</t>
+  </si>
+  <si>
+    <t>LED_0603</t>
+  </si>
+  <si>
+    <t> $0.0054</t>
+  </si>
+  <si>
+    <t>$0.0013</t>
+  </si>
+  <si>
+    <t> $0.0135</t>
+  </si>
+  <si>
+    <t>C2828857</t>
+  </si>
+  <si>
     <t>C14289</t>
   </si>
   <si>
-    <t> $0.1315</t>
-  </si>
-  <si>
     <t>C16581</t>
   </si>
   <si>
-    <t>$0.2027</t>
-  </si>
-  <si>
-    <t>Total cost</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.054</t>
-    </r>
+    <t>$0.1315</t>
+  </si>
+  <si>
+    <t>SOT-89-3</t>
+  </si>
+  <si>
+    <t>ESOP-8</t>
+  </si>
+  <si>
+    <t>$0.2064</t>
+  </si>
+  <si>
+    <t>C4211</t>
+  </si>
+  <si>
+    <t>$0.001</t>
   </si>
   <si>
     <t>$0.0176</t>
   </si>
   <si>
-    <t>$0.6108</t>
+    <t>$0.0091</t>
+  </si>
+  <si>
+    <t>$0.0405</t>
+  </si>
+  <si>
+    <t>TOTAL COST</t>
+  </si>
+  <si>
+    <t>$0.6607</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0_);[Red]\(&quot;R&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,8 +311,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,15 +335,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A37742E1-5010-4F2C-A10F-33AFB08906E0}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13" xr:uid="{26AC6D00-D233-4E79-80D1-B86C50FC69E0}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2572C4D0-9435-4456-95C9-AE0B1F0C3996}" name="Reference"/>
-    <tableColumn id="2" xr3:uid="{0E4E4E1A-811D-414F-ADFC-645F8FAEC6A4}" name="value"/>
-    <tableColumn id="7" xr3:uid="{EBD20913-E8E2-4A31-923F-5186361173E8}" name="Part number"/>
-    <tableColumn id="3" xr3:uid="{032F020D-DB37-40F5-99F8-138823EB7C88}" name="Quantity"/>
-    <tableColumn id="5" xr3:uid="{BDCE3D40-0515-49CB-919C-99ABA3C6322D}" name="price per unit"/>
-    <tableColumn id="6" xr3:uid="{0B1AB9FA-F6B2-483E-85B3-61A81CBBC55C}" name="Total Price"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4276CF09-2EF2-3441-8F58-F2649B31D053}" name="Table1" displayName="Table1" ref="A1:H17" totalsRowShown="0">
+  <autoFilter ref="A1:H17" xr:uid="{4276CF09-2EF2-3441-8F58-F2649B31D053}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{BF0170F4-16B8-2B41-BB58-0FFC356E1F3B}" name="REFERENCE"/>
+    <tableColumn id="2" xr3:uid="{0D6F5CEC-C797-CF4C-A530-1C49E118E8B9}" name="VALUE"/>
+    <tableColumn id="3" xr3:uid="{D87BD82B-85A7-B34E-A9BA-3787235FB073}" name="Extended Part"/>
+    <tableColumn id="4" xr3:uid="{C5710C7F-33ED-4F4D-9D7F-8123CDF7F22B}" name="JLCPCB part no:"/>
+    <tableColumn id="5" xr3:uid="{BEE92DAF-62AF-EA4B-9CA7-F3EF3413959B}" name="Package "/>
+    <tableColumn id="6" xr3:uid="{C6D9F730-408F-4443-9E7B-F7355ADAB4AF}" name="Price per unit"/>
+    <tableColumn id="7" xr3:uid="{1AE2D5EF-44BD-BA4A-B82A-F651C2A27316}" name="Total Price"/>
+    <tableColumn id="8" xr3:uid="{2CD87A71-6F9F-9A4A-9DE2-A252EC211C23}" name="Quantity"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -278,7 +368,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -290,7 +380,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -337,6 +427,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -372,6 +479,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,248 +647,405 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5173A0-D89C-6C4F-B2A5-E0E41FF21D49}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
       <c r="E13" t="s">
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>